--- a/biology/Microbiologie/Trichomonadea/Trichomonadea.xlsx
+++ b/biology/Microbiologie/Trichomonadea/Trichomonadea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Trichomonadea sont une classe de protozoaires de l'embranchement des Metamonada.
 </t>
@@ -511,25 +523,27 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (20 novembre 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (20 novembre 2021) :
 Cristamonadida
 Lophomonadida
 Spirotrichonymphida
-Selon AlgaeBase                                           (20 novembre 2021)[2] :
+Selon AlgaeBase                                           (20 novembre 2021) :
 Honigbergiellida
 Trichomonadida
 Tritrichomonadida
-Selon BioLib                    (20 novembre 2021)[3] :
+Selon BioLib                    (20 novembre 2021) :
 Lophomonadida Light, 1927
 Spirotrichonymphida Grassé, 1952
 Trichomonadida Kirby, 1947
-Selon l'IRMNG  (20 novembre 2021)[4] :
+Selon l'IRMNG  (20 novembre 2021) :
 Cristamonadida
 Spirotrichonymphida
 Trichomonadida
-Selon The Taxonomicon  (20 novembre 2021)[5] :
+Selon The Taxonomicon  (20 novembre 2021) :
 Trichomonadida Kirby, 1947
 Tritrichomonadida Čepička et al., 2010
 sous-classe Cristomonadia Cavalier-Smith, 2012
@@ -562,13 +576,15 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom scientifique de ce taxon est Trichomonadea, choisi en 1947 par le microbiologiste américain Harold Kirby (en)[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom scientifique de ce taxon est Trichomonadea, choisi en 1947 par le microbiologiste américain Harold Kirby (en).
 Trichomonadea a pour synonymes :
-Hypermastigia[1]
-Parabasalia[1]
-Trichomonadophyceae[2]</t>
+Hypermastigia
+Parabasalia
+Trichomonadophyceae</t>
         </is>
       </c>
     </row>
